--- a/HomeWork_Juliya Galagan.xlsx
+++ b/HomeWork_Juliya Galagan.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\тестування Основний\test for github\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="HW_1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="HW_2" sheetId="2" r:id="rId5"/>
+    <sheet name="HW_1" sheetId="1" r:id="rId1"/>
+    <sheet name="HW_3" sheetId="3" r:id="rId2"/>
+    <sheet name="HW_2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
   <si>
     <t xml:space="preserve">Нажимная алюминевая ручка на раздельной круглой розетке для межкомнатных дверей </t>
   </si>
@@ -82,8 +91,10 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://jsonlint.com/</t>
     </r>
@@ -280,56 +291,72 @@
 ----------------------^
 Expecting 'STRING', got '['</t>
   </si>
+  <si>
+    <t>nnnnn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -357,7 +384,13 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -368,14 +401,19 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -390,8 +428,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -401,6 +441,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -409,136 +450,127 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -728,823 +760,861 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.86"/>
-    <col customWidth="1" min="2" max="2" width="38.86"/>
-    <col customWidth="1" min="3" max="3" width="38.14"/>
-    <col customWidth="1" min="4" max="4" width="35.71"/>
-    <col customWidth="1" min="5" max="5" width="20.57"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="38.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="14.4">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.4">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="106.5" customHeight="1">
-      <c r="A4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:5" ht="106.5" customHeight="1">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="138.6">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" ht="61.5" customHeight="1">
-      <c r="A6" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" ht="61.5" customHeight="1">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" ht="73.5" customHeight="1">
-      <c r="A7" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="73.5" customHeight="1">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="43.2">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.29"/>
-    <col customWidth="1" min="2" max="2" width="41.86"/>
-    <col customWidth="1" min="3" max="3" width="37.43"/>
-    <col customWidth="1" min="4" max="4" width="43.29"/>
-    <col customWidth="1" min="5" max="5" width="44.29"/>
-    <col customWidth="1" min="6" max="6" width="27.57"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:27" ht="13.2">
+      <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:27" ht="14.4">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+    </row>
+    <row r="4" spans="1:27" ht="26.4">
+      <c r="A4" s="29">
+        <v>1</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" ht="23.25" customHeight="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="24">
+    <row r="5" spans="1:27" ht="23.25" customHeight="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:27" ht="26.4">
+      <c r="A6" s="29">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" ht="24.75" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="24">
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:27" ht="24.75" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:27" ht="26.4">
+      <c r="A8" s="29">
         <f>A6+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" ht="18.0" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="24">
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:27" ht="18" customHeight="1">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:27" ht="26.4">
+      <c r="A10" s="29">
         <f>A8+1</f>
         <v>4</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="24">
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:27" ht="19.5" customHeight="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="1:27" ht="26.4">
+      <c r="A12" s="29">
         <f>A10+1</f>
         <v>5</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="24">
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:27" ht="17.25" customHeight="1">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="1:27" ht="26.4">
+      <c r="A14" s="29">
         <f>A12+1</f>
         <v>6</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" ht="18.0" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="24">
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:27" ht="18" customHeight="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:27" ht="26.4">
+      <c r="A16" s="29">
         <f>A14+1</f>
         <v>7</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" ht="21.75" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="24">
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" ht="39.6">
+      <c r="A18" s="29">
         <f>A16+1</f>
         <v>8</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" ht="24.0" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-    </row>
-    <row r="20" ht="54.75" customHeight="1">
-      <c r="A20" s="24">
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:6" ht="24" customHeight="1">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" ht="54.75" customHeight="1">
+      <c r="A20" s="29">
         <f>A18+1</f>
         <v>9</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" ht="21.75" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" ht="48.0" customHeight="1">
-      <c r="A22" s="24">
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="1:6" ht="48" customHeight="1">
+      <c r="A22" s="29">
         <f>A20+1</f>
         <v>10</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="C22" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="26"/>
-    </row>
-    <row r="23" ht="27.75" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" ht="42.0" customHeight="1">
-      <c r="A24" s="29">
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" ht="42" customHeight="1">
+      <c r="A24" s="31">
         <f>A22+1</f>
         <v>11</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="31" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" ht="32.25" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-    </row>
-    <row r="26" ht="35.25" customHeight="1">
-      <c r="A26" s="29">
+    <row r="25" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A26" s="31">
         <f>A24+1</f>
         <v>12</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="31" t="s">
         <v>52</v>
       </c>
       <c r="F26" s="31"/>
     </row>
-    <row r="27" ht="27.0" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" ht="27.75" customHeight="1">
-      <c r="A28" s="29">
+    <row r="27" spans="1:6" ht="27" customHeight="1">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A28" s="31">
         <f>A26+1</f>
         <v>13</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="30" t="s">
+      <c r="C28" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="31" t="s">
         <v>55</v>
       </c>
       <c r="F28" s="31"/>
     </row>
-    <row r="29" ht="35.25" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" ht="36.75" customHeight="1">
-      <c r="A30" s="29">
+    <row r="29" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="1:6" ht="36.75" customHeight="1">
+      <c r="A30" s="31">
         <f>A28+1</f>
         <v>14</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="30" t="s">
+      <c r="C30" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="31" t="s">
         <v>58</v>
       </c>
       <c r="F30" s="31"/>
     </row>
-    <row r="31" ht="34.5" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" ht="34.5" customHeight="1">
-      <c r="A32" s="29">
+    <row r="31" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A32" s="31">
         <f>A30+1</f>
         <v>15</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="30" t="s">
+      <c r="C32" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="31" t="s">
         <v>61</v>
       </c>
       <c r="F32" s="31"/>
     </row>
-    <row r="33" ht="27.75" customHeight="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="29">
+    <row r="33" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" spans="1:6" ht="26.4">
+      <c r="A34" s="31">
         <f>A32+1</f>
         <v>16</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="30" t="s">
+      <c r="C34" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="31" t="s">
         <v>64</v>
       </c>
       <c r="F34" s="31"/>
     </row>
-    <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" ht="39.75" customHeight="1">
-      <c r="A36" s="29">
+    <row r="35" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A36" s="31">
         <f>A34+1</f>
         <v>17</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="30" t="s">
+      <c r="C36" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="31" t="s">
         <v>67</v>
       </c>
       <c r="F36" s="31"/>
     </row>
-    <row r="37" ht="27.75" customHeight="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="29">
+    <row r="37" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+    </row>
+    <row r="38" spans="1:6" ht="39.6">
+      <c r="A38" s="31">
         <f>A36+1</f>
         <v>18</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="30" t="s">
+      <c r="C38" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="31" t="s">
         <v>70</v>
       </c>
       <c r="F38" s="31"/>
     </row>
-    <row r="39" ht="39.75" customHeight="1">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="29">
+    <row r="39" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+    </row>
+    <row r="40" spans="1:6" ht="52.8">
+      <c r="A40" s="31">
         <f>A38+1</f>
         <v>19</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="30" t="s">
+      <c r="C40" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="31" t="s">
         <v>73</v>
       </c>
       <c r="F40" s="31"/>
     </row>
-    <row r="41" ht="27.75" customHeight="1">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-    </row>
-    <row r="42" ht="37.5" customHeight="1">
-      <c r="A42" s="29">
+    <row r="41" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+    </row>
+    <row r="42" spans="1:6" ht="37.5" customHeight="1">
+      <c r="A42" s="31">
         <f>A40+1</f>
         <v>20</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="30" t="s">
+      <c r="C42" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="31" t="s">
         <v>76</v>
       </c>
       <c r="F42" s="31"/>
     </row>
-    <row r="43" ht="28.5" customHeight="1">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
+    <row r="43" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="E40:E41"/>
@@ -1556,63 +1626,52 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A1"/>
+    <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>